--- a/Backend/todoapp/init_data.xlsx
+++ b/Backend/todoapp/init_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxx\Documents\6 semestr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxx\Documents\GitHub\IO--To-do-list\Backend\todoapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24EB770-79A8-45B0-B0F8-77532EFA08FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF468DA1-2629-44F9-8263-3C9B680E1C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -75,12 +75,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>opis</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -93,22 +87,211 @@
     <t>actualSemesterId</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>fb@</t>
-  </si>
-  <si>
-    <t>Xddsadxzc</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
     <t>semesterId</t>
+  </si>
+  <si>
+    <t>Matematyka 1</t>
+  </si>
+  <si>
+    <t>Matematyka dyskretna</t>
+  </si>
+  <si>
+    <t>Algebra wyższa</t>
+  </si>
+  <si>
+    <t>Repetytorium z fizyki</t>
+  </si>
+  <si>
+    <t>Podstawy informatyki</t>
+  </si>
+  <si>
+    <t>Podstawy systemów operacyjnych/UNIX</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 1</t>
+  </si>
+  <si>
+    <t>Matematyka 2</t>
+  </si>
+  <si>
+    <t>Mechanika i termodynamika</t>
+  </si>
+  <si>
+    <t>Ststystyka i przetwarzanie danych</t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych</t>
+  </si>
+  <si>
+    <t>Programowanie proceduralne</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 2</t>
+  </si>
+  <si>
+    <t>Matematyka 3</t>
+  </si>
+  <si>
+    <t>Elektromagnetyzm i optyka</t>
+  </si>
+  <si>
+    <t>Teoria obwodów i sygnałow</t>
+  </si>
+  <si>
+    <t>Podstawy programowania obiektowego</t>
+  </si>
+  <si>
+    <t>Sieci komputerowe</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 3</t>
+  </si>
+  <si>
+    <t>Język obcy B2 1/3</t>
+  </si>
+  <si>
+    <t>Język obcy B2 2/3</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Janusz</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Katarzyna</t>
+  </si>
+  <si>
+    <t>Michał</t>
+  </si>
+  <si>
+    <t>Agnieszka</t>
+  </si>
+  <si>
+    <t>Tomasz</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Wiśniewska</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Zielińska</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Pawlak</t>
+  </si>
+  <si>
+    <t>adam.kowalski@example.com</t>
+  </si>
+  <si>
+    <t>marta.nowak@example.com</t>
+  </si>
+  <si>
+    <t>janusz.dabrowski@example.com</t>
+  </si>
+  <si>
+    <t>anna.wisniewska@example.com</t>
+  </si>
+  <si>
+    <t>piotr.jankowski@example.com</t>
+  </si>
+  <si>
+    <t>katarzyna.kaczmarek@example.com</t>
+  </si>
+  <si>
+    <t>michal.wojciechowski@example.com</t>
+  </si>
+  <si>
+    <t>agnieszka.zielinska@example.com</t>
+  </si>
+  <si>
+    <t>tomasz.szymanski@example.com</t>
+  </si>
+  <si>
+    <t>monika.pawlak@example.com</t>
+  </si>
+  <si>
+    <t>Kowalski123!</t>
+  </si>
+  <si>
+    <t>Nowak2023#</t>
+  </si>
+  <si>
+    <t>Dabrowski!456</t>
+  </si>
+  <si>
+    <t>Wisniewska789$</t>
+  </si>
+  <si>
+    <t>Jankowski@2023</t>
+  </si>
+  <si>
+    <t>Kaczmarek#2023</t>
+  </si>
+  <si>
+    <t>Wojciechowski!123</t>
+  </si>
+  <si>
+    <t>Zielinska456$</t>
+  </si>
+  <si>
+    <t>Szymanski@2023</t>
+  </si>
+  <si>
+    <t>Pawlak789!</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>Kolokwium 1</t>
+  </si>
+  <si>
+    <t>Kolokwium 2</t>
+  </si>
+  <si>
+    <t>opis 1</t>
+  </si>
+  <si>
+    <t>opis 2</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -158,7 +341,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -440,16 +623,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7FD41F-5735-4DA2-BEE7-CCE3A6CF6843}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -458,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
@@ -478,23 +662,47 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="b">
         <f>IF(G2="true", TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <f>IF(G3="true", TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -505,16 +713,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E14085-ED5C-4710-A665-467D7CFF54BF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="44" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -529,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -549,17 +757,238 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +998,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,27 +1015,121 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44105</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44246</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44470</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44611</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44835</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44976</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44927</v>
-      </c>
-      <c r="E2" s="3">
-        <v>45108</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -616,17 +1139,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7617424C-5FDD-48B0-A6BB-41F7F581C2DD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="2" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -648,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -659,27 +1184,243 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B8539E4F-672C-47E0-AE06-935A33E7BA98}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{25A39408-058D-4951-8CF8-38992AAD372C}"/>
+    <hyperlink ref="D3" r:id="rId2" display="mailto:marta.nowak@example.com" xr:uid="{D3EFEC9A-E898-419B-B026-47A17522C66D}"/>
+    <hyperlink ref="D4" r:id="rId3" display="mailto:janusz.dabrowski@example.com" xr:uid="{D7FFBE1B-A93D-493F-BF89-68F96397F938}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{049531F1-DBFE-468E-8312-6004A9482024}"/>
+    <hyperlink ref="D6" r:id="rId5" display="mailto:piotr.jankowski@example.com" xr:uid="{16297C07-667E-427A-BB28-2D0E3D30C0D2}"/>
+    <hyperlink ref="D7" r:id="rId6" display="mailto:katarzyna.kaczmarek@example.com" xr:uid="{8A295068-7D18-4245-B846-3A8209E60521}"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:michal.wojciechowski@example.com" xr:uid="{993E3B8F-9652-4E56-A0D8-B2479C9536B4}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{96697320-7142-4C56-8072-093E9F8CE7E9}"/>
+    <hyperlink ref="D10" r:id="rId9" display="mailto:tomasz.szymanski@example.com" xr:uid="{CF0D0880-0DC9-43CD-974A-2F0DE897DA0B}"/>
+    <hyperlink ref="D11" r:id="rId10" display="mailto:monika.pawlak@example.com" xr:uid="{0759176B-AA45-4BA6-B7A4-6F2D8BAC599C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/todoapp/init_data.xlsx
+++ b/Backend/todoapp/init_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxx\Documents\GitHub\IO--To-do-list\Backend\todoapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF468DA1-2629-44F9-8263-3C9B680E1C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71845149-D0EC-401E-8626-F0D115B54317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="4" r:id="rId1"/>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7FD41F-5735-4DA2-BEE7-CCE3A6CF6843}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -715,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E14085-ED5C-4710-A665-467D7CFF54BF}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backend/todoapp/init_data.xlsx
+++ b/Backend/todoapp/init_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Foxx\Documents\GitHub\IO--To-do-list\Backend\todoapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71845149-D0EC-401E-8626-F0D115B54317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0997FF3B-DD82-4C0D-BC30-75745697ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="4" r:id="rId1"/>
@@ -18,21 +18,134 @@
     <sheet name="Semestrers" sheetId="1" r:id="rId3"/>
     <sheet name="Users" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>semesterId</t>
+  </si>
+  <si>
+    <t>subjectId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Kolokwium 1</t>
+  </si>
+  <si>
+    <t>opis 1</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Kolokwium 2</t>
+  </si>
+  <si>
+    <t>opis 2</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>ectsPoints</t>
+  </si>
+  <si>
+    <t>taskIds</t>
+  </si>
+  <si>
+    <t>Matematyka 1</t>
+  </si>
+  <si>
+    <t>Matematyka dyskretna</t>
+  </si>
+  <si>
+    <t>Algebra wyższa</t>
+  </si>
+  <si>
+    <t>Repetytorium z fizyki</t>
+  </si>
+  <si>
+    <t>Podstawy informatyki</t>
+  </si>
+  <si>
+    <t>Podstawy systemów operacyjnych/UNIX</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 1</t>
+  </si>
+  <si>
+    <t>Matematyka 2</t>
+  </si>
+  <si>
+    <t>Mechanika i termodynamika</t>
+  </si>
+  <si>
+    <t>Ststystyka i przetwarzanie danych</t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych</t>
+  </si>
+  <si>
+    <t>Programowanie proceduralne</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 2</t>
+  </si>
+  <si>
+    <t>Język obcy B2 1/3</t>
+  </si>
+  <si>
+    <t>Matematyka 3</t>
+  </si>
+  <si>
+    <t>Elektromagnetyzm i optyka</t>
+  </si>
+  <si>
+    <t>Teoria obwodów i sygnałow</t>
+  </si>
+  <si>
+    <t>Podstawy programowania obiektowego</t>
+  </si>
+  <si>
+    <t>Sieci komputerowe</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 3</t>
+  </si>
+  <si>
+    <t>Język obcy B2 2/3</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -45,10 +158,7 @@
     <t>endDate</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>ectsPoints</t>
+    <t>subjectIds</t>
   </si>
   <si>
     <t>firstName</t>
@@ -63,242 +173,149 @@
     <t>password</t>
   </si>
   <si>
+    <t>actualSemesterId</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
-    <t>subjectId</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>taskIds</t>
-  </si>
-  <si>
-    <t>subjectIds</t>
-  </si>
-  <si>
-    <t>actualSemesterId</t>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>adam.kowalski@example.com</t>
+  </si>
+  <si>
+    <t>Kowalski123!</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>semesterId</t>
-  </si>
-  <si>
-    <t>Matematyka 1</t>
-  </si>
-  <si>
-    <t>Matematyka dyskretna</t>
-  </si>
-  <si>
-    <t>Algebra wyższa</t>
-  </si>
-  <si>
-    <t>Repetytorium z fizyki</t>
-  </si>
-  <si>
-    <t>Podstawy informatyki</t>
-  </si>
-  <si>
-    <t>Podstawy systemów operacyjnych/UNIX</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 1</t>
-  </si>
-  <si>
-    <t>Matematyka 2</t>
-  </si>
-  <si>
-    <t>Mechanika i termodynamika</t>
-  </si>
-  <si>
-    <t>Ststystyka i przetwarzanie danych</t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych</t>
-  </si>
-  <si>
-    <t>Programowanie proceduralne</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 2</t>
-  </si>
-  <si>
-    <t>Matematyka 3</t>
-  </si>
-  <si>
-    <t>Elektromagnetyzm i optyka</t>
-  </si>
-  <si>
-    <t>Teoria obwodów i sygnałow</t>
-  </si>
-  <si>
-    <t>Podstawy programowania obiektowego</t>
-  </si>
-  <si>
-    <t>Sieci komputerowe</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 3</t>
-  </si>
-  <si>
-    <t>Język obcy B2 1/3</t>
-  </si>
-  <si>
-    <t>Język obcy B2 2/3</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
     <t>Marta</t>
   </si>
   <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>marta.nowak@example.com</t>
+  </si>
+  <si>
+    <t>Nowak2023#</t>
+  </si>
+  <si>
     <t>Janusz</t>
   </si>
   <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>janusz.dabrowski@example.com</t>
+  </si>
+  <si>
+    <t>Dabrowski!456</t>
+  </si>
+  <si>
     <t>Anna</t>
   </si>
   <si>
+    <t>Wiśniewska</t>
+  </si>
+  <si>
+    <t>anna.wisniewska@example.com</t>
+  </si>
+  <si>
+    <t>Wisniewska789$</t>
+  </si>
+  <si>
     <t>Piotr</t>
   </si>
   <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>piotr.jankowski@example.com</t>
+  </si>
+  <si>
+    <t>Jankowski@2023</t>
+  </si>
+  <si>
     <t>Katarzyna</t>
   </si>
   <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>katarzyna.kaczmarek@example.com</t>
+  </si>
+  <si>
+    <t>Kaczmarek#2023</t>
+  </si>
+  <si>
     <t>Michał</t>
   </si>
   <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>michal.wojciechowski@example.com</t>
+  </si>
+  <si>
+    <t>Wojciechowski!123</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
     <t>Agnieszka</t>
   </si>
   <si>
+    <t>Zielińska</t>
+  </si>
+  <si>
+    <t>agnieszka.zielinska@example.com</t>
+  </si>
+  <si>
+    <t>Zielinska456$</t>
+  </si>
+  <si>
     <t>Tomasz</t>
   </si>
   <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>tomasz.szymanski@example.com</t>
+  </si>
+  <si>
+    <t>Szymanski@2023</t>
+  </si>
+  <si>
     <t>Monika</t>
   </si>
   <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Wiśniewska</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Zielińska</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
     <t>Pawlak</t>
   </si>
   <si>
-    <t>adam.kowalski@example.com</t>
-  </si>
-  <si>
-    <t>marta.nowak@example.com</t>
-  </si>
-  <si>
-    <t>janusz.dabrowski@example.com</t>
-  </si>
-  <si>
-    <t>anna.wisniewska@example.com</t>
-  </si>
-  <si>
-    <t>piotr.jankowski@example.com</t>
-  </si>
-  <si>
-    <t>katarzyna.kaczmarek@example.com</t>
-  </si>
-  <si>
-    <t>michal.wojciechowski@example.com</t>
-  </si>
-  <si>
-    <t>agnieszka.zielinska@example.com</t>
-  </si>
-  <si>
-    <t>tomasz.szymanski@example.com</t>
-  </si>
-  <si>
     <t>monika.pawlak@example.com</t>
   </si>
   <si>
-    <t>Kowalski123!</t>
-  </si>
-  <si>
-    <t>Nowak2023#</t>
-  </si>
-  <si>
-    <t>Dabrowski!456</t>
-  </si>
-  <si>
-    <t>Wisniewska789$</t>
-  </si>
-  <si>
-    <t>Jankowski@2023</t>
-  </si>
-  <si>
-    <t>Kaczmarek#2023</t>
-  </si>
-  <si>
-    <t>Wojciechowski!123</t>
-  </si>
-  <si>
-    <t>Zielinska456$</t>
-  </si>
-  <si>
-    <t>Szymanski@2023</t>
-  </si>
-  <si>
     <t>Pawlak789!</t>
   </si>
   <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>Kolokwium 1</t>
-  </si>
-  <si>
-    <t>Kolokwium 2</t>
-  </si>
-  <si>
-    <t>opis 1</t>
-  </si>
-  <si>
-    <t>opis 2</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,11 +642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7FD41F-5735-4DA2-BEE7-CCE3A6CF6843}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
@@ -637,27 +654,27 @@
     <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -668,20 +685,20 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="b">
         <f>IF(G2="true", TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -692,17 +709,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="b">
         <f>IF(G3="true", TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -719,33 +736,33 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
@@ -757,221 +774,221 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -991,34 +1008,34 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="2"/>
     <col min="4" max="5" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1056,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1094,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1139,13 +1156,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7617424C-5FDD-48B0-A6BB-41F7F581C2DD}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="3" width="15.42578125" style="1" customWidth="1"/>
@@ -1156,202 +1173,202 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
@@ -1360,53 +1377,99 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
